--- a/Kalkulačka balancer.xlsx
+++ b/Kalkulačka balancer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proVD\Desktop\Clicker-Game--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proVD\Desktop\BaronFight\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Cena</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Darius 3</t>
-  </si>
-  <si>
-    <t>dawdawdaw</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,6 +154,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,13 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I8:O29"/>
+  <dimension ref="I8:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
@@ -476,8 +479,8 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3">
-        <f>L9*10</f>
-        <v>1000</v>
+        <f>L9*5</f>
+        <v>500</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -491,13 +494,13 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <f>L9*3</f>
+        <f t="shared" ref="L10" si="0">L9*3</f>
         <v>300</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3">
-        <f t="shared" ref="N10" si="0">N9*3</f>
-        <v>3000</v>
+        <f t="shared" ref="N10" si="1">N9*3</f>
+        <v>1500</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -511,13 +514,13 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <f t="shared" ref="L11" si="1">L9/20</f>
+        <f t="shared" ref="L11:O11" si="2">L9/20</f>
         <v>5</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3">
-        <f t="shared" ref="N11" si="2">N9/20</f>
-        <v>50</v>
+        <f t="shared" ref="N11:O11" si="3">N9/20</f>
+        <v>25</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -526,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="J12" s="3">
-        <f>J9*100</f>
-        <v>1000</v>
+        <f>J9*500</f>
+        <v>5000</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <f>J12*5</f>
-        <v>5000</v>
+        <f t="shared" ref="L12:O12" si="4">L9*500</f>
+        <v>50000</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -567,17 +570,17 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3">
         <f>J15*10</f>
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3">
-        <f>L15*10</f>
-        <v>25000</v>
+        <f>L15*5</f>
+        <v>500000</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -586,56 +589,59 @@
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <f>J15*3</f>
-        <v>750</v>
+        <f>J15/5</f>
+        <v>2000</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3">
-        <f>L15*3</f>
-        <v>7500</v>
+        <f t="shared" ref="L16" si="5">L15/5</f>
+        <v>20000</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3">
-        <f t="shared" ref="N16" si="3">N15*3</f>
-        <v>75000</v>
+        <f t="shared" ref="N16" si="6">N15/5</f>
+        <v>100000</v>
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>16.5</v>
+        <f>J15/15</f>
+        <v>666.66666666666663</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3">
-        <v>166.5</v>
+        <f t="shared" ref="L17:O17" si="7">L15/15</f>
+        <v>6666.666666666667</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3">
-        <v>1666.5</v>
+        <f t="shared" ref="N17:O17" si="8">N15/15</f>
+        <v>33333.333333333336</v>
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3">
         <f>J15*100</f>
-        <v>25000</v>
+        <v>1000000</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <f>J18*5</f>
-        <v>125000</v>
+        <f t="shared" ref="L18:O18" si="9">L15*100</f>
+        <v>10000000</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -644,7 +650,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
       <c r="J20" s="3" t="s">
         <v>10</v>
@@ -659,94 +665,120 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4">
         <f>J21*10</f>
-        <v>50000</v>
+        <v>10000000</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="4">
-        <f>L21*10</f>
-        <v>500000</v>
+        <f>L21*5</f>
+        <v>50000000</v>
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f>J21*3</f>
-        <v>15000</v>
+        <f>J21/2</f>
+        <v>500000</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="4">
-        <f>L21*3</f>
-        <v>150000</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="4">
-        <f t="shared" ref="N22" si="4">N21*3</f>
-        <v>1500000</v>
-      </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <f t="shared" ref="L22" si="10">L21/2</f>
+        <v>5000000</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22" si="11">N21/2</f>
+        <v>25000000</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="3">
-        <f>J21/10</f>
-        <v>500</v>
+        <f>J21/50</f>
+        <v>20000</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="4">
-        <f>L21/10</f>
-        <v>5000</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="4">
-        <f>N21/10</f>
-        <v>50000</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:O23" si="12">L21/50</f>
+        <v>200000</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
+        <f t="shared" ref="N23:O23" si="13">N21/50</f>
+        <v>1000000</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="Q23" s="6">
+        <f>N22*50</f>
+        <v>1250000000</v>
+      </c>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3">
-        <f>J21*100</f>
-        <v>500000</v>
+        <f>J21*1000</f>
+        <v>1000000000</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <f>J24*5</f>
-        <v>2500000</v>
+        <f>L21*1000</f>
+        <v>10000000000</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="M29" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+  <mergeCells count="46">
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -757,36 +789,11 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
